--- a/data/trans_camb/P19C06-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.08402563620304934</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.04223103816109706</v>
+        <v>0.04223103816109741</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.05508121417493843</v>
@@ -664,7 +664,7 @@
         <v>0.1084091589680109</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.3570877378812754</v>
+        <v>-0.3570877378812752</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.595817736064511</v>
+        <v>-1.818815997161334</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.503683811484817</v>
+        <v>-1.622075569991955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.405117914846032</v>
+        <v>-2.509437529397502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.379294306771796</v>
+        <v>-2.306305272215723</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.506537005090693</v>
+        <v>-2.689826799242057</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.381538966645308</v>
+        <v>-2.440642833581427</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.353910021891437</v>
+        <v>-1.382238538497571</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.376696133958894</v>
+        <v>-1.395566055908867</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.688106269748408</v>
+        <v>-1.543033568235466</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.288029572254826</v>
+        <v>2.168110118391235</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.174832982104202</v>
+        <v>2.026950804972253</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4525619588407834</v>
+        <v>0.5062757023363924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.309194151669414</v>
+        <v>2.465637200049762</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.212691673533349</v>
+        <v>2.217260030439569</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.777023493492232</v>
+        <v>1.801747672020769</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.612691249062246</v>
+        <v>1.522915515838437</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.461283255461737</v>
+        <v>1.553253619069574</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7356096669767977</v>
+        <v>0.8314912342726442</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.04340172105015954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02181357762644421</v>
+        <v>0.02181357762644439</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.03394939077472842</v>
@@ -769,7 +769,7 @@
         <v>0.06681815127886603</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2200915745192678</v>
+        <v>-0.2200915745192677</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8627881929503556</v>
+        <v>-0.8651109006899432</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7430531291182193</v>
+        <v>-0.7291727666517648</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7823640059840088</v>
+        <v>-0.7562938348621739</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.848127176261231</v>
+        <v>-0.8171895862808364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7029304864921385</v>
+        <v>-0.6909770131377974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6093183707158895</v>
+        <v>-0.6077805031725372</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5819041303247615</v>
+        <v>-0.6054036639861307</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6631288213865253</v>
+        <v>-0.6383971463559504</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.879670150383215</v>
+        <v>4.528942822826858</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.88093562104738</v>
+        <v>3.560464417252658</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.601419336872727</v>
+        <v>1.721447948831457</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.367350169853758</v>
+        <v>3.984048196634482</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.422172375877965</v>
+        <v>3.376467311022255</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.47219287209853</v>
+        <v>3.011557807251592</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.965670484990278</v>
+        <v>1.736878873533367</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.531294683946889</v>
+        <v>1.826145595448603</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9336948445944719</v>
+        <v>1.078977441272553</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.6405544098724215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.5668133423278795</v>
+        <v>-0.5668133423278796</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.141864793977615</v>
@@ -869,7 +869,7 @@
         <v>0.06558475300239616</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.5707474679353545</v>
+        <v>-0.5707474679353544</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2251224643257079</v>
@@ -878,7 +878,7 @@
         <v>-0.2768531105018689</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.5620678812948002</v>
+        <v>-0.5620678812948003</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.244643975013603</v>
+        <v>-2.323600172891436</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.507121961290117</v>
+        <v>-2.342223830968473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.456449923406614</v>
+        <v>-2.427138831761483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6949010602062966</v>
+        <v>-0.7532933702659803</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.457382282582053</v>
+        <v>-1.438428912449006</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.026565084345589</v>
+        <v>-2.276264751406489</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8554173891022867</v>
+        <v>-0.9201623359708246</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.363468295784235</v>
+        <v>-1.334344115126827</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.529728776547579</v>
+        <v>-1.656103284124192</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7320580630136151</v>
+        <v>0.737938224792087</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6487451701493752</v>
+        <v>0.6410463343606998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6099270558478612</v>
+        <v>0.5338828640933244</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.757932239826197</v>
+        <v>3.539914256141937</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.884630424801131</v>
+        <v>1.907136096690685</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5766633910406784</v>
+        <v>0.4193594852925818</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.443642107338998</v>
+        <v>1.488904114123741</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8868987271628666</v>
+        <v>0.8284937518922372</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3769487073447321</v>
+        <v>0.3234609144378354</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5060161355248937</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4477632073531851</v>
+        <v>-0.4477632073531853</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.9867270695812052</v>
@@ -974,7 +974,7 @@
         <v>0.05667418023620245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4932037308418721</v>
+        <v>-0.493203730841872</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1862530439918777</v>
@@ -995,26 +995,24 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="n">
-        <v>-0.9291457700540544</v>
-      </c>
+      <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.6072777498684081</v>
+        <v>-0.6204954545905348</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8320779975549816</v>
+        <v>-0.8355062801294689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.921380853533517</v>
+        <v>-0.9287132674793491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5500193041341347</v>
+        <v>-0.5674296809390609</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7735826969114639</v>
+        <v>-0.7490634539703778</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8051271362153858</v>
+        <v>-0.8466679528824662</v>
       </c>
     </row>
     <row r="15">
@@ -1026,26 +1024,22 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="n">
-        <v>2.091262590896546</v>
-      </c>
+      <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>10.0344253179142</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>5.520565090708655</v>
-      </c>
+        <v>8.176007499480647</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>2.82593469473355</v>
+        <v>1.509508929583643</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.547461728804911</v>
+        <v>2.338486987570194</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.566852164459158</v>
+        <v>1.402322209284179</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8552942884432535</v>
+        <v>0.7210508430961309</v>
       </c>
     </row>
     <row r="16">
@@ -1075,7 +1069,7 @@
         <v>-1.462267006610631</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.7749165251536007</v>
+        <v>-0.7749165251536004</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4529435043914776</v>
@@ -1095,31 +1089,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.504543082318002</v>
+        <v>-1.575089014072142</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.581856358464944</v>
+        <v>-1.713514770418552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.158534908709291</v>
+        <v>-2.175819584725259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.990552353976185</v>
+        <v>-2.007641580594961</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.432837223873165</v>
+        <v>-4.406853796992229</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.305353287738642</v>
+        <v>-4.425355879339511</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.106398094727932</v>
+        <v>-0.9940390531224889</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.778405845901093</v>
+        <v>-1.705269204542907</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.994685629777508</v>
+        <v>-1.925465726314203</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1124,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.86321362125311</v>
+        <v>1.842283151148108</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.001825772652959</v>
+        <v>1.979841026985649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8272417733089369</v>
+        <v>0.8864835772496178</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.766857045910625</v>
+        <v>3.902718122646789</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6892303425509939</v>
+        <v>0.7010566825812321</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.933894799108082</v>
+        <v>2.045844225862867</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.137157562622827</v>
+        <v>1.110656954214436</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4594551375773382</v>
+        <v>0.5601763031119513</v>
       </c>
     </row>
     <row r="19">
@@ -1180,7 +1174,7 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.5299418790483206</v>
+        <v>-0.5299418790483205</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2752335235515719</v>
@@ -1200,27 +1194,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6151129174970915</v>
+        <v>-0.6097208967501017</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7033596366059296</v>
+        <v>-0.7021473747636555</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8068144434575889</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8432250930060756</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.4675752999279749</v>
+        <v>-0.4413640289300218</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.78168016452026</v>
+        <v>-0.7779509743998795</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8258003692030206</v>
+        <v>-0.7791974846060128</v>
       </c>
     </row>
     <row r="21">
@@ -1231,25 +1223,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.519904330928774</v>
+        <v>2.149801165943353</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.363916735074371</v>
+        <v>2.398660810779151</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.276985720561921</v>
+        <v>1.220799105495212</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.12498963804314</v>
+        <v>2.360187174566909</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.427099136299459</v>
+        <v>1.395313915366556</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6721578751210597</v>
+        <v>0.720756423219729</v>
       </c>
     </row>
     <row r="22">
@@ -1279,7 +1271,7 @@
         <v>0.5721521644973262</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.1475492882535744</v>
+        <v>0.1475492882535742</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.3677662926937625</v>
@@ -1288,7 +1280,7 @@
         <v>0.001097508331962017</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.2110837234539409</v>
+        <v>-0.2110837234539411</v>
       </c>
     </row>
     <row r="23">
@@ -1299,31 +1291,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.6462475917325</v>
+        <v>-1.591224217524798</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.434394287820479</v>
+        <v>-1.406935743765697</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.463033527437342</v>
+        <v>-1.335504047148137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.076843851690367</v>
+        <v>-1.088312886403105</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5182495639566647</v>
+        <v>-0.7049016859013473</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8255016140906859</v>
+        <v>-1.011329375910754</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.101342570348272</v>
+        <v>-1.069704687285307</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.7940942669316291</v>
+        <v>-0.7133699116130866</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8999005723698921</v>
+        <v>-0.9387732403631875</v>
       </c>
     </row>
     <row r="24">
@@ -1334,31 +1326,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1330609783051824</v>
+        <v>0.04873266146015369</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6399887445758669</v>
+        <v>0.6382895338100329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.487825179867301</v>
+        <v>0.5776117461480341</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.045548674655122</v>
+        <v>0.9984419253005493</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.95729027840064</v>
+        <v>1.801518775420075</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.25253144204551</v>
+        <v>1.154851779651806</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3238710723954064</v>
+        <v>0.285705346549174</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8772055902369758</v>
+        <v>0.7833192527785902</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5830196629770061</v>
+        <v>0.4654311270101684</v>
       </c>
     </row>
     <row r="25">
@@ -1384,7 +1376,7 @@
         <v>0.5771121767059256</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1488283995049508</v>
+        <v>0.1488283995049506</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3314830469280633</v>
@@ -1393,7 +1385,7 @@
         <v>0.0009892298808652513</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1902585342852433</v>
+        <v>-0.1902585342852434</v>
       </c>
     </row>
     <row r="26">
@@ -1404,31 +1396,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8963753334053267</v>
+        <v>-0.8724141164376534</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8193219548421172</v>
+        <v>-0.8170371054270902</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8369766751384103</v>
+        <v>-0.8264693328233607</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7137031487719812</v>
+        <v>-0.7374552127859656</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4020673801134513</v>
+        <v>-0.5034968785873939</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5885037473552954</v>
+        <v>-0.62671166009398</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7082673476219714</v>
+        <v>-0.6914111746042459</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5359874112867973</v>
+        <v>-0.5110508122648391</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6099353569709705</v>
+        <v>-0.6183448165201244</v>
       </c>
     </row>
     <row r="27">
@@ -1439,31 +1431,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4373263166848005</v>
+        <v>0.3832025659075979</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.205808939391212</v>
+        <v>1.103965111300889</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8779436729483754</v>
+        <v>1.169553992921412</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.754308619867643</v>
+        <v>2.579930197395931</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.644022988484814</v>
+        <v>4.526213507344805</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.106994717378791</v>
+        <v>2.718733678247624</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4947995097758625</v>
+        <v>0.5632980520434662</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.144955001125142</v>
+        <v>1.068448918286127</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7790319019080959</v>
+        <v>0.7025186789372662</v>
       </c>
     </row>
     <row r="28">
@@ -1513,31 +1505,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2793318620813001</v>
+        <v>0.263048074274546</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8530600208990158</v>
+        <v>0.7212474247108007</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1178307594922409</v>
+        <v>0.1179591018834207</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.205385051661505</v>
+        <v>-1.495436999081439</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.553024779893778</v>
+        <v>-1.527327776766862</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.9361464711966123</v>
+        <v>-0.9147551365185804</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6773037051335451</v>
+        <v>-0.5389162263746075</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3138796115793587</v>
+        <v>-0.3611048794950977</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.3806543758531</v>
+        <v>-0.4988465322473047</v>
       </c>
     </row>
     <row r="30">
@@ -1548,31 +1540,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.727852454580548</v>
+        <v>2.600468671700036</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.856033033025685</v>
+        <v>3.633316204582262</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.95786498622908</v>
+        <v>1.889979444621799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.34725595280822</v>
+        <v>1.18054362208879</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.301377717204904</v>
+        <v>1.281670190844688</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.543266733099189</v>
+        <v>1.549612323618942</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.145979333770182</v>
+        <v>1.315665127081726</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.586059406294192</v>
+        <v>1.71170324858119</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.248044630371657</v>
+        <v>1.216374095047869</v>
       </c>
     </row>
     <row r="31">
@@ -1627,22 +1619,22 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.6491427829279133</v>
+        <v>-0.723124802474947</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7363946680460827</v>
+        <v>-0.7804921910407557</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4545727732284958</v>
+        <v>-0.4820361207833092</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5323757789531205</v>
+        <v>-0.448068823857858</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3359293050367096</v>
+        <v>-0.3545981267418229</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3178295290659783</v>
+        <v>-0.3653664189065796</v>
       </c>
     </row>
     <row r="33">
@@ -1656,22 +1648,22 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>3.057988110966776</v>
+        <v>2.050741567843246</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.087789372853778</v>
+        <v>2.30202129250805</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.738883389058273</v>
+        <v>2.98249706564954</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.759487644122529</v>
+        <v>4.127700257186928</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>4.099049893381026</v>
+        <v>4.980328777760374</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.662392305438356</v>
+        <v>3.55352887923794</v>
       </c>
     </row>
     <row r="34">
@@ -1692,7 +1684,7 @@
         <v>0.8090102932040844</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.9431430474340629</v>
+        <v>0.9431430474340627</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.2461681028642512</v>
@@ -1730,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.769378768929563</v>
+        <v>-0.6889028772892539</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.5062054203635998</v>
+        <v>-0.4746247916015406</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.393513012700421</v>
+        <v>-1.378914156754138</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.4367419681157645</v>
+        <v>-0.5036855252393643</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.2782000814821306</v>
+        <v>-0.3170135796350163</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.9400019626461231</v>
+        <v>-0.9572535451775332</v>
       </c>
     </row>
     <row r="36">
@@ -1756,31 +1748,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.395530009089291</v>
+        <v>2.39280571397661</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.005564748221186</v>
+        <v>2.96204254697225</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.696144838525407</v>
+        <v>3.386697299146129</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.19208076275484</v>
+        <v>1.089799206928456</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.619088785987841</v>
+        <v>1.662958635880287</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.01963612810503571</v>
+        <v>0.03806887702926722</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.120229775500991</v>
+        <v>1.069443900395624</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.460143309043776</v>
+        <v>1.436846337903941</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.3581285866075011</v>
+        <v>0.3230280263472486</v>
       </c>
     </row>
     <row r="37">
@@ -1835,22 +1827,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.5789630436925788</v>
+        <v>-0.5734336039735193</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5017507461922923</v>
+        <v>-0.4708844487121041</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.9238658550662018</v>
+        <v>-0.9136193893505238</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4701774591421871</v>
+        <v>-0.4796600149576463</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3621627096062893</v>
+        <v>-0.3690762096673398</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.798429906472744</v>
+        <v>-0.8336135854231321</v>
       </c>
     </row>
     <row r="39">
@@ -1864,22 +1856,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>2.633820121328054</v>
+        <v>2.342432757761518</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.87478602880384</v>
+        <v>3.563569824677734</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.220076646795853</v>
+        <v>0.3907377535284899</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.761858794404115</v>
+        <v>2.811311596671117</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.983466316834758</v>
+        <v>3.204865476837707</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.161529462327517</v>
+        <v>1.331788512708413</v>
       </c>
     </row>
     <row r="40">
@@ -1900,7 +1892,7 @@
         <v>0.08982413706490576</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.3458871555656302</v>
+        <v>-0.3458871555656303</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.3069353205155249</v>
@@ -1918,7 +1910,7 @@
         <v>0.1515532202925113</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.1857238215727849</v>
+        <v>-0.1857238215727848</v>
       </c>
     </row>
     <row r="41">
@@ -1929,31 +1921,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7176570754079956</v>
+        <v>-0.6956255656473552</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.5093150688337301</v>
+        <v>-0.4715271574265554</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.8953682030137921</v>
+        <v>-0.8758727223942074</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.3125043996684149</v>
+        <v>-0.2652797136955797</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.3678239210392843</v>
+        <v>-0.3497258526204701</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.5261378222553884</v>
+        <v>-0.5258134768929894</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.3009549686574305</v>
+        <v>-0.2591475964453627</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.2883917985168458</v>
+        <v>-0.2680298315574611</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.5436009722466795</v>
+        <v>-0.570226427846301</v>
       </c>
     </row>
     <row r="42">
@@ -1964,31 +1956,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.5354969834993231</v>
+        <v>0.4530208414789174</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.7639502893414658</v>
+        <v>0.7410025197882704</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.2154856037167552</v>
+        <v>0.1980575766428687</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.8919450717161119</v>
+        <v>0.8493387329609361</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.7572060435331519</v>
+        <v>0.7929298189359147</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.4542829569571142</v>
+        <v>0.4257083859356913</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.5392427392650587</v>
+        <v>0.5499366739928653</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.5713875482838685</v>
+        <v>0.5832385114537839</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.1520337417750574</v>
+        <v>0.1716708107350266</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2015,7 @@
         <v>0.1357494214593728</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1663567509886502</v>
+        <v>-0.16635675098865</v>
       </c>
     </row>
     <row r="44">
@@ -2034,31 +2026,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5134573654395175</v>
+        <v>-0.4800678174191871</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.370379521259319</v>
+        <v>-0.3527523410073424</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6259408836520978</v>
+        <v>-0.6254667597045391</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2158715530551952</v>
+        <v>-0.2006120570729991</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2644851690048839</v>
+        <v>-0.2648894144634226</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3691393539254024</v>
+        <v>-0.3698285773315947</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2366848346969789</v>
+        <v>-0.2092055541145741</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2119459600769923</v>
+        <v>-0.2012623604577534</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3975996968881987</v>
+        <v>-0.4059430404591823</v>
       </c>
     </row>
     <row r="45">
@@ -2069,31 +2061,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6850336970936113</v>
+        <v>0.5765785179513356</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.046513132184078</v>
+        <v>0.9261180001601512</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3416449896272325</v>
+        <v>0.2738052360866053</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.000930508724412</v>
+        <v>0.9562695947102859</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8777496326133326</v>
+        <v>0.9454784279354631</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.53240247864163</v>
+        <v>0.4992102898233198</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5624969039792991</v>
+        <v>0.619121698749831</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.609325009300414</v>
+        <v>0.6141812382869029</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1761191329239977</v>
+        <v>0.208503658050459</v>
       </c>
     </row>
     <row r="46">
